--- a/data/trans_media/P33_1_2023-Provincia-trans_media.xlsx
+++ b/data/trans_media/P33_1_2023-Provincia-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al dia y entre semana</t>
+          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,27</t>
+          <t>6,97; 7,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,02</t>
+          <t>6,8; 7,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,11</t>
+          <t>6,91; 7,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,34</t>
+          <t>7,09; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,38</t>
+          <t>7,16; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,33</t>
+          <t>7,16; 7,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,2</t>
+          <t>6,93; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,02</t>
+          <t>6,8; 7,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,07</t>
+          <t>6,9; 7,08</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,2</t>
+          <t>6,86; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,05</t>
+          <t>6,85; 7,06</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 6,71</t>
+          <t>6,47; 6,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 6,76</t>
+          <t>6,59; 6,77</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,11</t>
+          <t>6,88; 7,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,95</t>
+          <t>6,69; 6,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,0</t>
+          <t>6,82; 6,99</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,0</t>
+          <t>6,78; 6,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,86</t>
+          <t>6,46; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 6,88</t>
+          <t>6,59; 6,88</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,58</t>
+          <t>7,39; 7,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,39</t>
+          <t>7,28; 7,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,03</t>
+          <t>6,88; 7,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,09</t>
+          <t>6,99; 7,09</t>
         </is>
       </c>
     </row>
